--- a/Assets/PartA/Resources/Pattern/patternlist.xlsx
+++ b/Assets/PartA/Resources/Pattern/patternlist.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
